--- a/cities/Medinah/Medinah.xlsx
+++ b/cities/Medinah/Medinah.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,21 +472,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>289</v>
+        <v>372</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Adel Abdeen Mohamed</t>
+          <t>Hisham Muntaser</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Al Rawda Investment For Real State Developmet &amp; Projects Management</t>
+          <t>Taibah University</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Regional I.T Manager</t>
+          <t>Manager of networking dept</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -501,7 +501,112 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>adel_abdeen@alharamhotel.com</t>
+          <t>hmuntaser@taibahu.edu.sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>348</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Bakur Elyas</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Madinah Water</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>IT Manager</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Medinah</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>bmelyas@mwa.gov.sa</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>420</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Muhammed saber</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Fasttech Company</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Purchasing Manager</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Medinah</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>sabir3000@yahoo.com</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>421</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Muhammed Ehsan</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Fasttech Company Ltd</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Purchasing Manager</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Medinah</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>sabir3000@gmail.com</t>
         </is>
       </c>
     </row>
